--- a/manual/docs/S-164_Draft_v1.0.0_TestList.xlsx
+++ b/manual/docs/S-164_Draft_v1.0.0_TestList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\kusal\S-164-Sub-Group\manual\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64856D7B-5A03-4249-BBC5-BCE1A29180A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1312BE15-C58C-442F-A79D-019BA8BA6F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" xr2:uid="{AC36A9E2-6039-4BDB-94E5-D4D0A711FDA3}"/>
+    <workbookView xWindow="9669" yWindow="1149" windowWidth="19200" windowHeight="15600" xr2:uid="{AC36A9E2-6039-4BDB-94E5-D4D0A711FDA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2124,18 +2124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2144,16 +2137,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2161,32 +2146,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2209,36 +2173,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2556,16 +2575,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF86147C-C1CA-4BEA-A2AC-9C1DC6B7FE7D}">
   <dimension ref="B2:J277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B245" workbookViewId="0">
+      <selection activeCell="B250" sqref="B250:E277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="45.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="71.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="71.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="41.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="1"/>
     <col min="7" max="7" width="24.1640625" style="1" customWidth="1"/>
@@ -2573,13 +2592,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2590,1710 +2609,1710 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="I4" s="14"/>
+      <c r="F4" s="8"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="I5" s="14"/>
+      <c r="F5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="31"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="I6" s="14"/>
+      <c r="F6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="I7" s="14"/>
+      <c r="F7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="31"/>
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="F8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="I9" s="14"/>
+      <c r="F9" s="8"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="31"/>
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="I10" s="14"/>
+      <c r="F10" s="8"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="I11" s="14"/>
+      <c r="F11" s="8"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
+      <c r="B13" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="I14" s="14"/>
+      <c r="F14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="I15" s="14"/>
+      <c r="F15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="46"/>
       <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="I16" s="14"/>
+      <c r="F16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="I17" s="14"/>
+      <c r="F17" s="8"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="46"/>
       <c r="E18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="I18" s="14"/>
+      <c r="F18" s="8"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="I19" s="14"/>
+      <c r="F19" s="8"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="I20" s="14"/>
+      <c r="F20" s="8"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="F21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="I22" s="14"/>
+      <c r="F22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
+      <c r="B23" s="46"/>
       <c r="E23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="I23" s="14"/>
+      <c r="F23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="I24" s="14"/>
+      <c r="F24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="46"/>
       <c r="E25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="I25" s="14"/>
+      <c r="F25" s="8"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="I26" s="14"/>
+      <c r="F26" s="8"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
+      <c r="B27" s="46"/>
       <c r="E27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="I27" s="14"/>
+      <c r="F27" s="8"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
+      <c r="B28" s="46"/>
       <c r="E28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="I28" s="14"/>
+      <c r="F28" s="8"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="I29" s="14"/>
+      <c r="F29" s="8"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
+      <c r="B30" s="46"/>
       <c r="E30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="I30" s="14"/>
+      <c r="F30" s="8"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="46"/>
+      <c r="C31" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="I31" s="14"/>
+      <c r="F31" s="8"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
+      <c r="B32" s="46"/>
       <c r="E32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="I32" s="14"/>
+      <c r="F32" s="8"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
+      <c r="B33" s="46"/>
       <c r="E33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="I33" s="14"/>
+      <c r="F33" s="8"/>
+      <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
+      <c r="B34" s="46"/>
       <c r="E34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="I34" s="14"/>
+      <c r="F34" s="8"/>
+      <c r="I34" s="9"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="46"/>
+      <c r="C35" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="I35" s="14"/>
+      <c r="F35" s="8"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
+      <c r="B36" s="46"/>
       <c r="E36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="I36" s="14"/>
+      <c r="F36" s="8"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="15"/>
-      <c r="C37" s="23" t="s">
+      <c r="B37" s="47"/>
+      <c r="C37" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="21"/>
+      <c r="E37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F38" s="13"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
+      <c r="F38" s="8"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
+      <c r="B39" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I39" s="14"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="13"/>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="49"/>
+      <c r="C40" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="9" t="s">
         <v>69</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="14"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="49"/>
+      <c r="C41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="16" t="s">
         <v>72</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I41" s="14"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="13"/>
-      <c r="E42" s="14" t="s">
+      <c r="B42" s="49"/>
+      <c r="E42" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I42" s="14"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
-      <c r="C43" s="12" t="s">
+      <c r="B43" s="49"/>
+      <c r="C43" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="9" t="s">
         <v>76</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I43" s="14"/>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
-      <c r="C44" s="12" t="s">
+      <c r="B44" s="49"/>
+      <c r="C44" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I44" s="14"/>
+      <c r="I44" s="9"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="13"/>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="49"/>
+      <c r="C45" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="9" t="s">
         <v>83</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I45" s="14"/>
+      <c r="I45" s="9"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="9" t="s">
         <v>87</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I46" s="14"/>
+      <c r="I46" s="9"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="13"/>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="49"/>
+      <c r="C47" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="9" t="s">
         <v>90</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I47" s="14"/>
+      <c r="I47" s="9"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="13"/>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="49"/>
+      <c r="C48" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="9" t="s">
         <v>93</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I48" s="14"/>
+      <c r="I48" s="9"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="13"/>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="49"/>
+      <c r="C49" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="14"/>
+      <c r="I49" s="9"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="13"/>
-      <c r="E50" s="14" t="s">
+      <c r="B50" s="49"/>
+      <c r="E50" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I50" s="14"/>
+      <c r="I50" s="9"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="13"/>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="49"/>
+      <c r="C51" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="14"/>
+      <c r="I51" s="9"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="13"/>
-      <c r="E52" s="14" t="s">
+      <c r="B52" s="49"/>
+      <c r="E52" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I52" s="14"/>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="13"/>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="49"/>
+      <c r="C53" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="9" t="s">
         <v>103</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I53" s="14"/>
+      <c r="I53" s="9"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="13"/>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="49"/>
+      <c r="C54" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="9" t="s">
         <v>107</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I54" s="14"/>
+      <c r="I54" s="9"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="13"/>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="49"/>
+      <c r="C55" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="9" t="s">
         <v>109</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I55" s="14"/>
+      <c r="I55" s="9"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="13"/>
-      <c r="E56" s="14" t="s">
+      <c r="B56" s="49"/>
+      <c r="E56" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="I56" s="14"/>
+      <c r="I56" s="9"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="13"/>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="49"/>
+      <c r="C57" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="9" t="s">
         <v>113</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I57" s="14"/>
+      <c r="I57" s="9"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="13"/>
-      <c r="C58" s="12" t="s">
+      <c r="B58" s="49"/>
+      <c r="C58" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="9" t="s">
         <v>114</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I58" s="14"/>
+      <c r="I58" s="9"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="E59" s="14"/>
-      <c r="I59" s="14"/>
+      <c r="C59" s="31"/>
+      <c r="E59" s="9"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="13"/>
-      <c r="C60" s="12" t="s">
+      <c r="B60" s="49"/>
+      <c r="C60" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="9" t="s">
         <v>119</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I60" s="14"/>
+      <c r="I60" s="9"/>
     </row>
     <row r="61" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B61" s="13"/>
-      <c r="C61" s="28" t="s">
+      <c r="B61" s="49"/>
+      <c r="C61" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I61" s="14"/>
+      <c r="I61" s="9"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I62" s="14"/>
+      <c r="I62" s="9"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="13"/>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="49"/>
+      <c r="C63" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="I63" s="14"/>
+      <c r="I63" s="9"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="13"/>
-      <c r="C64" s="2" t="s">
+      <c r="B64" s="49"/>
+      <c r="C64" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="I64" s="14"/>
+      <c r="I64" s="9"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="13"/>
-      <c r="C65" s="12" t="s">
+      <c r="B65" s="49"/>
+      <c r="C65" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="I65" s="14"/>
+      <c r="I65" s="9"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="13"/>
-      <c r="C66" s="2" t="s">
+      <c r="B66" s="49"/>
+      <c r="C66" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="I66" s="14"/>
+      <c r="I66" s="9"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="13"/>
-      <c r="C67" s="12" t="s">
+      <c r="B67" s="49"/>
+      <c r="C67" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="I67" s="14"/>
+      <c r="I67" s="9"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="13"/>
-      <c r="C68" s="2" t="s">
+      <c r="B68" s="49"/>
+      <c r="C68" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="I68" s="14"/>
+      <c r="I68" s="9"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="13"/>
-      <c r="C69" s="2" t="s">
+      <c r="B69" s="49"/>
+      <c r="C69" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="I69" s="14"/>
+      <c r="I69" s="9"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="13"/>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="49"/>
+      <c r="C70" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="I70" s="14"/>
+      <c r="I70" s="9"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="13"/>
-      <c r="C71" s="2" t="s">
+      <c r="B71" s="49"/>
+      <c r="C71" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="I71" s="14"/>
+      <c r="I71" s="9"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="13"/>
-      <c r="E72" s="14"/>
-      <c r="I72" s="14"/>
+      <c r="B72" s="49"/>
+      <c r="E72" s="9"/>
+      <c r="I72" s="9"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="13"/>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="49"/>
+      <c r="C73" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="I73" s="14"/>
+      <c r="I73" s="9"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="13"/>
-      <c r="E74" s="14" t="s">
+      <c r="B74" s="49"/>
+      <c r="E74" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="I74" s="14"/>
+      <c r="I74" s="9"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="13"/>
-      <c r="C75" s="2" t="s">
+      <c r="B75" s="49"/>
+      <c r="C75" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="I75" s="14"/>
+      <c r="I75" s="9"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="13"/>
-      <c r="C76" s="2" t="s">
+      <c r="B76" s="49"/>
+      <c r="C76" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="I76" s="14"/>
+      <c r="I76" s="9"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="13"/>
-      <c r="E77" s="14" t="s">
+      <c r="B77" s="49"/>
+      <c r="E77" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="I77" s="14"/>
+      <c r="I77" s="9"/>
     </row>
     <row r="78" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B78" s="13"/>
-      <c r="C78" s="2" t="s">
+      <c r="B78" s="49"/>
+      <c r="C78" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="I78" s="14"/>
+      <c r="I78" s="9"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="13"/>
-      <c r="E79" s="14" t="s">
+      <c r="B79" s="49"/>
+      <c r="E79" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="I79" s="14"/>
+      <c r="I79" s="9"/>
     </row>
     <row r="80" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B80" s="13"/>
-      <c r="C80" s="2" t="s">
+      <c r="B80" s="49"/>
+      <c r="C80" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="I80" s="14"/>
+      <c r="I80" s="9"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" s="13"/>
-      <c r="E81" s="14" t="s">
+      <c r="B81" s="49"/>
+      <c r="E81" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I81" s="14"/>
+      <c r="I81" s="9"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B82" s="13"/>
-      <c r="C82" s="2" t="s">
+      <c r="B82" s="49"/>
+      <c r="C82" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="I82" s="14"/>
+      <c r="I82" s="9"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B83" s="13"/>
-      <c r="E83" s="14" t="s">
+      <c r="B83" s="49"/>
+      <c r="E83" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="I83" s="14"/>
+      <c r="I83" s="9"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="13"/>
-      <c r="C84" s="2" t="s">
+      <c r="B84" s="49"/>
+      <c r="C84" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I84" s="14"/>
+      <c r="I84" s="9"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B85" s="13"/>
-      <c r="E85" s="14" t="s">
+      <c r="B85" s="49"/>
+      <c r="E85" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="I85" s="14"/>
+      <c r="I85" s="9"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B86" s="13"/>
-      <c r="E86" s="14" t="s">
+      <c r="B86" s="49"/>
+      <c r="E86" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="I86" s="14"/>
+      <c r="I86" s="9"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B87" s="13"/>
-      <c r="E87" s="14" t="s">
+      <c r="B87" s="49"/>
+      <c r="E87" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="I87" s="14"/>
+      <c r="I87" s="9"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B88" s="13"/>
-      <c r="E88" s="14"/>
-      <c r="I88" s="14"/>
+      <c r="B88" s="49"/>
+      <c r="E88" s="9"/>
+      <c r="I88" s="9"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B89" s="13"/>
-      <c r="C89" s="12" t="s">
+      <c r="B89" s="49"/>
+      <c r="C89" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="I89" s="14"/>
+      <c r="I89" s="9"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B90" s="13"/>
-      <c r="E90" s="14" t="s">
+      <c r="B90" s="49"/>
+      <c r="E90" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="I90" s="14"/>
+      <c r="I90" s="9"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B91" s="13"/>
-      <c r="C91" s="12" t="s">
+      <c r="B91" s="49"/>
+      <c r="C91" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E91" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I91" s="14"/>
+      <c r="E91" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" s="9"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B92" s="13"/>
-      <c r="C92" s="12" t="s">
+      <c r="B92" s="49"/>
+      <c r="C92" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I92" s="14"/>
+      <c r="I92" s="9"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B93" s="13"/>
-      <c r="C93" s="12" t="s">
+      <c r="B93" s="49"/>
+      <c r="C93" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="I93" s="14"/>
+      <c r="I93" s="9"/>
     </row>
     <row r="94" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B94" s="13"/>
-      <c r="C94" s="12" t="s">
+      <c r="B94" s="49"/>
+      <c r="C94" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="I94" s="14"/>
+      <c r="I94" s="9"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B95" s="19"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="21" t="s">
+      <c r="B95" s="51"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="I95" s="14"/>
+      <c r="I95" s="9"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>196</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F96" s="13"/>
+      <c r="F96" s="8"/>
       <c r="G96" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I96" s="14"/>
+      <c r="I96" s="9"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B97" s="11"/>
-      <c r="C97" s="2" t="s">
+      <c r="B97" s="46"/>
+      <c r="C97" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="9" t="s">
+      <c r="F97" s="5"/>
+      <c r="G97" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="H97" s="9"/>
-      <c r="I97" s="10"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="7"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B98" s="11"/>
-      <c r="C98" s="2" t="s">
+      <c r="B98" s="46"/>
+      <c r="C98" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>203</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F98" s="13"/>
+      <c r="F98" s="8"/>
       <c r="G98" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I98" s="14"/>
+      <c r="I98" s="9"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B99" s="11"/>
-      <c r="C99" s="2" t="s">
+      <c r="B99" s="46"/>
+      <c r="C99" s="29" t="s">
         <v>205</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F99" s="13"/>
+      <c r="F99" s="8"/>
       <c r="G99" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I99" s="14"/>
+      <c r="I99" s="9"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B100" s="11"/>
-      <c r="C100" s="12" t="s">
+      <c r="B100" s="46"/>
+      <c r="C100" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>208</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F100" s="13"/>
+      <c r="F100" s="8"/>
       <c r="G100" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I100" s="14"/>
+      <c r="I100" s="9"/>
     </row>
     <row r="101" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B101" s="11"/>
-      <c r="C101" s="2" t="s">
+      <c r="B101" s="46"/>
+      <c r="C101" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="D101" s="32" t="s">
+      <c r="D101" s="18" t="s">
         <v>212</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F101" s="13"/>
+      <c r="F101" s="8"/>
       <c r="G101" s="1" t="s">
         <v>213</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I101" s="14"/>
+      <c r="I101" s="9"/>
     </row>
     <row r="102" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B102" s="11"/>
-      <c r="C102" s="2" t="s">
+      <c r="B102" s="46"/>
+      <c r="C102" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="D102" s="33" t="s">
+      <c r="D102" s="19" t="s">
         <v>215</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F102" s="13"/>
+      <c r="F102" s="8"/>
       <c r="G102" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I102" s="14"/>
+      <c r="I102" s="9"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B103" s="11"/>
+      <c r="B103" s="46"/>
       <c r="E103" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F103" s="13"/>
-      <c r="I103" s="14"/>
+      <c r="F103" s="8"/>
+      <c r="I103" s="9"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B104" s="11"/>
+      <c r="B104" s="46"/>
       <c r="E104" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F104" s="13"/>
-      <c r="I104" s="14"/>
+      <c r="F104" s="8"/>
+      <c r="I104" s="9"/>
     </row>
     <row r="105" spans="2:9" ht="34.75" x14ac:dyDescent="0.3">
-      <c r="B105" s="11"/>
-      <c r="C105" s="2" t="s">
+      <c r="B105" s="46"/>
+      <c r="C105" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D105" s="33" t="s">
+      <c r="D105" s="19" t="s">
         <v>219</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F105" s="13"/>
+      <c r="F105" s="8"/>
       <c r="G105" s="1" t="s">
         <v>221</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I105" s="14"/>
+      <c r="I105" s="9"/>
     </row>
     <row r="106" spans="2:9" ht="34.75" x14ac:dyDescent="0.3">
-      <c r="B106" s="11"/>
-      <c r="C106" s="2" t="s">
+      <c r="B106" s="46"/>
+      <c r="C106" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="D106" s="33" t="s">
+      <c r="D106" s="19" t="s">
         <v>219</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F106" s="13"/>
+      <c r="F106" s="8"/>
       <c r="G106" s="1" t="s">
         <v>221</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I106" s="14"/>
+      <c r="I106" s="9"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B107" s="11"/>
+      <c r="B107" s="46"/>
       <c r="E107" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F107" s="13"/>
-      <c r="I107" s="14"/>
+      <c r="F107" s="8"/>
+      <c r="I107" s="9"/>
     </row>
     <row r="108" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B108" s="11"/>
-      <c r="C108" s="2" t="s">
+      <c r="B108" s="46"/>
+      <c r="C108" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="D108" s="33" t="s">
+      <c r="D108" s="19" t="s">
         <v>225</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F108" s="13"/>
+      <c r="F108" s="8"/>
       <c r="G108" s="1" t="s">
         <v>221</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I108" s="14"/>
+      <c r="I108" s="9"/>
     </row>
     <row r="109" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B109" s="11"/>
-      <c r="C109" s="2" t="s">
+      <c r="B109" s="46"/>
+      <c r="C109" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="D109" s="33" t="s">
+      <c r="D109" s="19" t="s">
         <v>225</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F109" s="13"/>
+      <c r="F109" s="8"/>
       <c r="G109" s="1" t="s">
         <v>221</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I109" s="14"/>
+      <c r="I109" s="9"/>
     </row>
     <row r="110" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B110" s="11"/>
-      <c r="C110" s="2" t="s">
+      <c r="B110" s="46"/>
+      <c r="C110" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="D110" s="34" t="s">
+      <c r="D110" s="20" t="s">
         <v>228</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F110" s="13"/>
+      <c r="F110" s="8"/>
       <c r="G110" s="1" t="s">
         <v>221</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I110" s="14"/>
+      <c r="I110" s="9"/>
     </row>
     <row r="111" spans="2:9" ht="23.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="15"/>
-      <c r="C111" s="23" t="s">
+      <c r="B111" s="47"/>
+      <c r="C111" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="D111" s="33" t="s">
+      <c r="D111" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="E111" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="F111" s="13"/>
+      <c r="F111" s="8"/>
       <c r="G111" s="1" t="s">
         <v>221</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I111" s="14"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B112" s="4" t="s">
+      <c r="I111" s="9"/>
+    </row>
+    <row r="112" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
+      <c r="B112" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="C112" s="22" t="s">
+      <c r="C112" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="D112" s="33" t="s">
+      <c r="D112" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F112" s="13"/>
+      <c r="F112" s="8"/>
       <c r="G112" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I112" s="14"/>
+      <c r="I112" s="9"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="11"/>
-      <c r="C113" s="2" t="s">
+      <c r="B113" s="46"/>
+      <c r="C113" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="D113" s="33" t="s">
+      <c r="D113" s="19" t="s">
         <v>237</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F113" s="13"/>
+      <c r="F113" s="8"/>
       <c r="G113" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I113" s="14"/>
+      <c r="I113" s="9"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B114" s="11"/>
-      <c r="C114" s="2" t="s">
+      <c r="B114" s="46"/>
+      <c r="C114" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="2" t="s">
         <v>239</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F114" s="13"/>
+      <c r="F114" s="8"/>
       <c r="G114" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I114" s="14"/>
+      <c r="I114" s="9"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B115" s="11"/>
-      <c r="C115" s="2" t="s">
+      <c r="B115" s="46"/>
+      <c r="C115" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="2" t="s">
         <v>242</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F115" s="13"/>
+      <c r="F115" s="8"/>
       <c r="G115" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I115" s="14"/>
+      <c r="I115" s="9"/>
     </row>
     <row r="116" spans="2:10" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B116" s="11"/>
-      <c r="C116" s="2" t="s">
+      <c r="B116" s="46"/>
+      <c r="C116" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="D116" s="34" t="s">
+      <c r="D116" s="20" t="s">
         <v>244</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F116" s="13"/>
+      <c r="F116" s="8"/>
       <c r="G116" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I116" s="14"/>
+      <c r="I116" s="9"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B117" s="11"/>
-      <c r="C117" s="2" t="s">
+      <c r="B117" s="46"/>
+      <c r="C117" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="D117" s="33" t="s">
+      <c r="D117" s="19" t="s">
         <v>248</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F117" s="13"/>
+      <c r="F117" s="8"/>
       <c r="G117" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I117" s="14"/>
+      <c r="I117" s="9"/>
     </row>
     <row r="118" spans="2:10" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B118" s="11"/>
-      <c r="C118" s="2" t="s">
+      <c r="B118" s="46"/>
+      <c r="C118" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="D118" s="34" t="s">
+      <c r="D118" s="20" t="s">
         <v>250</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F118" s="13"/>
+      <c r="F118" s="8"/>
       <c r="G118" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I118" s="14"/>
+      <c r="I118" s="9"/>
     </row>
     <row r="119" spans="2:10" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B119" s="11"/>
-      <c r="C119" s="2" t="s">
+      <c r="B119" s="46"/>
+      <c r="C119" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="D119" s="33" t="s">
+      <c r="D119" s="19" t="s">
         <v>252</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F119" s="13"/>
+      <c r="F119" s="8"/>
       <c r="G119" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I119" s="14"/>
+      <c r="I119" s="9"/>
     </row>
     <row r="120" spans="2:10" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B120" s="11"/>
-      <c r="C120" s="2" t="s">
+      <c r="B120" s="46"/>
+      <c r="C120" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="D120" s="33" t="s">
+      <c r="D120" s="19" t="s">
         <v>254</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F120" s="13"/>
+      <c r="F120" s="8"/>
       <c r="G120" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I120" s="14"/>
+      <c r="I120" s="9"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B121" s="11"/>
-      <c r="C121" s="2" t="s">
+      <c r="B121" s="46"/>
+      <c r="C121" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="D121" s="33" t="s">
+      <c r="D121" s="19" t="s">
         <v>256</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F121" s="13"/>
+      <c r="F121" s="8"/>
       <c r="G121" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I121" s="14"/>
+      <c r="I121" s="9"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B122" s="11"/>
-      <c r="C122" s="2" t="s">
+      <c r="B122" s="46"/>
+      <c r="C122" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="D122" s="33" t="s">
+      <c r="D122" s="19" t="s">
         <v>258</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F122" s="13"/>
+      <c r="F122" s="8"/>
       <c r="G122" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I122" s="14"/>
+      <c r="I122" s="9"/>
     </row>
     <row r="123" spans="2:10" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B123" s="11"/>
-      <c r="C123" s="2" t="s">
+      <c r="B123" s="46"/>
+      <c r="C123" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="D123" s="34" t="s">
+      <c r="D123" s="20" t="s">
         <v>260</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F123" s="13"/>
+      <c r="F123" s="8"/>
       <c r="G123" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I123" s="14"/>
+      <c r="I123" s="9"/>
     </row>
     <row r="124" spans="2:10" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B124" s="11"/>
-      <c r="C124" s="2" t="s">
+      <c r="B124" s="46"/>
+      <c r="C124" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="D124" s="34" t="s">
+      <c r="D124" s="20" t="s">
         <v>262</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F124" s="13"/>
+      <c r="F124" s="8"/>
       <c r="G124" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I124" s="14"/>
+      <c r="I124" s="9"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B125" s="11"/>
-      <c r="C125" s="2" t="s">
+      <c r="B125" s="46"/>
+      <c r="C125" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="D125" s="33" t="s">
+      <c r="D125" s="19" t="s">
         <v>264</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F125" s="13"/>
+      <c r="F125" s="8"/>
       <c r="G125" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I125" s="14"/>
+      <c r="I125" s="9"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B126" s="11"/>
-      <c r="C126" s="2" t="s">
+      <c r="B126" s="46"/>
+      <c r="C126" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="D126" s="34" t="s">
+      <c r="D126" s="20" t="s">
         <v>266</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F126" s="13"/>
+      <c r="F126" s="8"/>
       <c r="G126" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I126" s="14"/>
+      <c r="I126" s="9"/>
     </row>
     <row r="127" spans="2:10" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B127" s="11"/>
-      <c r="C127" s="2" t="s">
+      <c r="B127" s="46"/>
+      <c r="C127" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="D127" s="33" t="s">
+      <c r="D127" s="19" t="s">
         <v>260</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F127" s="13"/>
+      <c r="F127" s="8"/>
       <c r="G127" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I127" s="14"/>
+      <c r="I127" s="9"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B128" s="11"/>
-      <c r="C128" s="2" t="s">
+      <c r="B128" s="46"/>
+      <c r="C128" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="D128" s="33" t="s">
+      <c r="D128" s="19" t="s">
         <v>269</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F128" s="13"/>
+      <c r="F128" s="8"/>
       <c r="G128" s="1" t="s">
         <v>240</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="I128" s="14" t="s">
+      <c r="I128" s="9" t="s">
         <v>271</v>
       </c>
       <c r="J128" s="1" t="s">
@@ -4301,24 +4320,24 @@
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B129" s="11"/>
-      <c r="C129" s="2" t="s">
+      <c r="B129" s="46"/>
+      <c r="C129" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D129" s="33" t="s">
+      <c r="D129" s="19" t="s">
         <v>274</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F129" s="13"/>
+      <c r="F129" s="8"/>
       <c r="G129" s="1" t="s">
         <v>240</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="I129" s="14" t="s">
+      <c r="I129" s="9" t="s">
         <v>271</v>
       </c>
       <c r="J129" s="1" t="s">
@@ -4326,24 +4345,24 @@
       </c>
     </row>
     <row r="130" spans="2:10" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B130" s="11"/>
-      <c r="C130" s="2" t="s">
+      <c r="B130" s="46"/>
+      <c r="C130" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="D130" s="33" t="s">
+      <c r="D130" s="19" t="s">
         <v>276</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F130" s="13"/>
+      <c r="F130" s="8"/>
       <c r="G130" s="1" t="s">
         <v>240</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="I130" s="14" t="s">
+      <c r="I130" s="9" t="s">
         <v>271</v>
       </c>
       <c r="J130" s="1" t="s">
@@ -4351,489 +4370,489 @@
       </c>
     </row>
     <row r="131" spans="2:10" ht="35.15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="15"/>
-      <c r="C131" s="23" t="s">
+      <c r="B131" s="47"/>
+      <c r="C131" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="D131" s="33" t="s">
+      <c r="D131" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="E131" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F131" s="13"/>
+      <c r="E131" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" s="8"/>
       <c r="G131" s="1" t="s">
         <v>240</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="I131" s="14" t="s">
+      <c r="I131" s="9" t="s">
         <v>271</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B132" s="11" t="s">
+    <row r="132" spans="2:10" ht="23.15" x14ac:dyDescent="0.3">
+      <c r="B132" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="C132" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="2" t="s">
         <v>281</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F132" s="13"/>
-      <c r="I132" s="14"/>
+      <c r="F132" s="8"/>
+      <c r="I132" s="9"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B133" s="11"/>
-      <c r="C133" s="2" t="s">
+      <c r="B133" s="46"/>
+      <c r="C133" s="29" t="s">
         <v>282</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F133" s="13"/>
-      <c r="I133" s="14"/>
+      <c r="F133" s="8"/>
+      <c r="I133" s="9"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B134" s="11"/>
-      <c r="C134" s="2" t="s">
+      <c r="B134" s="46"/>
+      <c r="C134" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="D134" s="33" t="s">
+      <c r="D134" s="19" t="s">
         <v>284</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F134" s="13"/>
+      <c r="F134" s="8"/>
       <c r="G134" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="I134" s="14"/>
+      <c r="I134" s="9"/>
     </row>
     <row r="135" spans="2:10" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B135" s="11"/>
-      <c r="C135" s="2" t="s">
+      <c r="B135" s="46"/>
+      <c r="C135" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="D135" s="33" t="s">
+      <c r="D135" s="19" t="s">
         <v>287</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F135" s="13"/>
+      <c r="F135" s="8"/>
       <c r="G135" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I135" s="14"/>
+      <c r="I135" s="9"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B136" s="11"/>
-      <c r="C136" s="2" t="s">
+      <c r="B136" s="46"/>
+      <c r="C136" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="D136" s="33" t="s">
+      <c r="D136" s="19" t="s">
         <v>289</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="13"/>
+      <c r="F136" s="8"/>
       <c r="G136" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I136" s="14"/>
+      <c r="I136" s="9"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B137" s="11"/>
-      <c r="C137" s="2" t="s">
+      <c r="B137" s="46"/>
+      <c r="C137" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="D137" s="33" t="s">
+      <c r="D137" s="19" t="s">
         <v>292</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F137" s="13"/>
+      <c r="F137" s="8"/>
       <c r="G137" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I137" s="14"/>
+      <c r="I137" s="9"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B138" s="11"/>
-      <c r="C138" s="2" t="s">
+      <c r="B138" s="46"/>
+      <c r="C138" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="D138" s="33" t="s">
+      <c r="D138" s="19" t="s">
         <v>294</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F138" s="13"/>
+      <c r="F138" s="8"/>
       <c r="G138" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I138" s="14"/>
+      <c r="I138" s="9"/>
     </row>
     <row r="139" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="11"/>
-      <c r="C139" s="2" t="s">
+      <c r="B139" s="46"/>
+      <c r="C139" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="D139" s="33" t="s">
+      <c r="D139" s="19" t="s">
         <v>296</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F139" s="13"/>
-      <c r="I139" s="14"/>
+      <c r="F139" s="8"/>
+      <c r="I139" s="9"/>
     </row>
     <row r="140" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="11"/>
-      <c r="C140" s="2" t="s">
+      <c r="B140" s="46"/>
+      <c r="C140" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="D140" s="35" t="s">
+      <c r="D140" s="21" t="s">
         <v>298</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F140" s="13"/>
-      <c r="I140" s="14"/>
+      <c r="F140" s="8"/>
+      <c r="I140" s="9"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B141" s="11"/>
-      <c r="C141" s="2" t="s">
+      <c r="B141" s="46"/>
+      <c r="C141" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="D141" s="33" t="s">
+      <c r="D141" s="19" t="s">
         <v>298</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F141" s="13"/>
-      <c r="I141" s="14"/>
+      <c r="F141" s="8"/>
+      <c r="I141" s="9"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B142" s="11"/>
-      <c r="C142" s="2" t="s">
+      <c r="B142" s="46"/>
+      <c r="C142" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="D142" s="33" t="s">
+      <c r="D142" s="19" t="s">
         <v>301</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F142" s="13"/>
+      <c r="F142" s="8"/>
       <c r="G142" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I142" s="14"/>
+      <c r="I142" s="9"/>
     </row>
     <row r="143" spans="2:10" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B143" s="11"/>
-      <c r="C143" s="2" t="s">
+      <c r="B143" s="46"/>
+      <c r="C143" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="D143" s="33" t="s">
+      <c r="D143" s="19" t="s">
         <v>304</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F143" s="13"/>
+      <c r="F143" s="8"/>
       <c r="G143" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I143" s="14"/>
+      <c r="I143" s="9"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B144" s="11"/>
-      <c r="C144" s="2" t="s">
+      <c r="B144" s="46"/>
+      <c r="C144" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="D144" s="33" t="s">
+      <c r="D144" s="19" t="s">
         <v>307</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F144" s="13"/>
+      <c r="F144" s="8"/>
       <c r="G144" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I144" s="14"/>
+      <c r="I144" s="9"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B145" s="11"/>
-      <c r="C145" s="12" t="s">
+      <c r="B145" s="46"/>
+      <c r="C145" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="2" t="s">
         <v>310</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F145" s="13"/>
+      <c r="F145" s="8"/>
       <c r="G145" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I145" s="14"/>
+      <c r="I145" s="9"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B146" s="11"/>
+      <c r="B146" s="46"/>
       <c r="E146" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F146" s="13"/>
-      <c r="I146" s="14"/>
+      <c r="F146" s="8"/>
+      <c r="I146" s="9"/>
     </row>
     <row r="147" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="15"/>
-      <c r="C147" s="23" t="s">
+      <c r="B147" s="47"/>
+      <c r="C147" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="D147" s="33" t="s">
+      <c r="D147" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="E147" s="18" t="s">
+      <c r="E147" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="F147" s="19"/>
-      <c r="G147" s="20" t="s">
+      <c r="F147" s="12"/>
+      <c r="G147" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="H147" s="20" t="s">
+      <c r="H147" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="I147" s="21"/>
+      <c r="I147" s="14"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="D148" s="6" t="s">
+      <c r="D148" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="E148" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F148" s="8"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
-      <c r="I148" s="10"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="7"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B149" s="11"/>
-      <c r="C149" s="12" t="s">
+      <c r="B149" s="46"/>
+      <c r="C149" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="2" t="s">
         <v>320</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F149" s="13"/>
-      <c r="I149" s="14"/>
+      <c r="F149" s="8"/>
+      <c r="I149" s="9"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B150" s="11"/>
-      <c r="C150" s="12" t="s">
+      <c r="B150" s="46"/>
+      <c r="C150" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="2" t="s">
         <v>322</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F150" s="19"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="21"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="14"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="C151" s="24" t="s">
+      <c r="C151" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="D151" s="36" t="s">
+      <c r="D151" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="E151" s="10" t="s">
+      <c r="E151" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F151" s="13"/>
+      <c r="F151" s="8"/>
       <c r="G151" s="1" t="s">
         <v>314</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I151" s="14"/>
+      <c r="I151" s="9"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B152" s="13"/>
-      <c r="C152" s="2" t="s">
+      <c r="B152" s="49"/>
+      <c r="C152" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="D152" s="33" t="s">
+      <c r="D152" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="E152" s="14" t="s">
+      <c r="E152" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F152" s="13"/>
+      <c r="F152" s="8"/>
       <c r="G152" s="1" t="s">
         <v>314</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I152" s="14"/>
+      <c r="I152" s="9"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B153" s="13"/>
-      <c r="C153" s="2" t="s">
+      <c r="B153" s="49"/>
+      <c r="C153" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D153" s="34" t="s">
+      <c r="D153" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="E153" s="14" t="s">
+      <c r="E153" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F153" s="13"/>
+      <c r="F153" s="8"/>
       <c r="G153" s="1" t="s">
         <v>314</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I153" s="14"/>
+      <c r="I153" s="9"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B154" s="13"/>
-      <c r="C154" s="2" t="s">
+      <c r="B154" s="49"/>
+      <c r="C154" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="D154" s="33" t="s">
+      <c r="D154" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="E154" s="14" t="s">
+      <c r="E154" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F154" s="13"/>
+      <c r="F154" s="8"/>
       <c r="G154" s="1" t="s">
         <v>314</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I154" s="14"/>
+      <c r="I154" s="9"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B155" s="13"/>
-      <c r="C155" s="2" t="s">
+      <c r="B155" s="49"/>
+      <c r="C155" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="D155" s="33" t="s">
+      <c r="D155" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="E155" s="14" t="s">
+      <c r="E155" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F155" s="13"/>
+      <c r="F155" s="8"/>
       <c r="G155" s="1" t="s">
         <v>314</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I155" s="14"/>
+      <c r="I155" s="9"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B156" s="13"/>
-      <c r="C156" s="2" t="s">
+      <c r="B156" s="49"/>
+      <c r="C156" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="D156" s="33" t="s">
+      <c r="D156" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="E156" s="14" t="s">
+      <c r="E156" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F156" s="13"/>
+      <c r="F156" s="8"/>
       <c r="G156" s="1" t="s">
         <v>314</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I156" s="14"/>
+      <c r="I156" s="9"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B157" s="13"/>
-      <c r="C157" s="2" t="s">
+      <c r="B157" s="49"/>
+      <c r="C157" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="D157" s="34" t="s">
+      <c r="D157" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="E157" s="14" t="s">
+      <c r="E157" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F157" s="13"/>
+      <c r="F157" s="8"/>
       <c r="G157" s="1" t="s">
         <v>314</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I157" s="14"/>
+      <c r="I157" s="9"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B158" s="13"/>
-      <c r="C158" s="2" t="s">
+      <c r="B158" s="49"/>
+      <c r="C158" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="D158" s="33" t="s">
+      <c r="D158" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="E158" s="14" t="s">
+      <c r="E158" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F158" s="13"/>
+      <c r="F158" s="8"/>
       <c r="G158" s="1" t="s">
         <v>314</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I158" s="14" t="s">
+      <c r="I158" s="9" t="s">
         <v>221</v>
       </c>
       <c r="J158" s="1" t="s">
@@ -4841,785 +4860,785 @@
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B159" s="13"/>
-      <c r="C159" s="2" t="s">
+      <c r="B159" s="49"/>
+      <c r="C159" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="D159" s="34"/>
-      <c r="E159" s="14" t="s">
+      <c r="D159" s="20"/>
+      <c r="E159" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F159" s="13"/>
+      <c r="F159" s="8"/>
       <c r="G159" s="1" t="s">
         <v>314</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I159" s="14"/>
+      <c r="I159" s="9"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B160" s="13"/>
-      <c r="C160" s="2" t="s">
+      <c r="B160" s="49"/>
+      <c r="C160" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="E160" s="14" t="s">
+      <c r="E160" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F160" s="13"/>
+      <c r="F160" s="8"/>
       <c r="G160" s="1" t="s">
         <v>314</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I160" s="14"/>
+      <c r="I160" s="9"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B161" s="13"/>
-      <c r="C161" s="2" t="s">
+      <c r="B161" s="49"/>
+      <c r="C161" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="E161" s="14" t="s">
+      <c r="E161" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F161" s="13"/>
+      <c r="F161" s="8"/>
       <c r="G161" s="1" t="s">
         <v>314</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I161" s="14"/>
+      <c r="I161" s="9"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B162" s="13"/>
-      <c r="C162" s="2" t="s">
+      <c r="B162" s="49"/>
+      <c r="C162" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="E162" s="14" t="s">
+      <c r="E162" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F162" s="13"/>
+      <c r="F162" s="8"/>
       <c r="G162" s="1" t="s">
         <v>314</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I162" s="14"/>
+      <c r="I162" s="9"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B163" s="13"/>
-      <c r="C163" s="2" t="s">
+      <c r="B163" s="49"/>
+      <c r="C163" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="D163" s="34" t="s">
+      <c r="D163" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="E163" s="14" t="s">
+      <c r="E163" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="F163" s="13"/>
+      <c r="F163" s="8"/>
       <c r="G163" s="1" t="s">
         <v>343</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I163" s="14"/>
+      <c r="I163" s="9"/>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B164" s="13"/>
-      <c r="C164" s="2" t="s">
+      <c r="B164" s="49"/>
+      <c r="C164" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="D164" s="33" t="s">
+      <c r="D164" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="E164" s="14" t="s">
+      <c r="E164" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="F164" s="13"/>
+      <c r="F164" s="8"/>
       <c r="G164" s="1" t="s">
         <v>343</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I164" s="14"/>
+      <c r="I164" s="9"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B165" s="13"/>
-      <c r="C165" s="2" t="s">
+      <c r="B165" s="49"/>
+      <c r="C165" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="D165" s="34" t="s">
+      <c r="D165" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="E165" s="14" t="s">
+      <c r="E165" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="F165" s="13"/>
+      <c r="F165" s="8"/>
       <c r="G165" s="1" t="s">
         <v>343</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I165" s="14"/>
+      <c r="I165" s="9"/>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B166" s="13"/>
-      <c r="C166" s="2" t="s">
+      <c r="B166" s="49"/>
+      <c r="C166" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="D166" s="34" t="s">
+      <c r="D166" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="E166" s="14" t="s">
+      <c r="E166" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="F166" s="13"/>
+      <c r="F166" s="8"/>
       <c r="G166" s="1" t="s">
         <v>343</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I166" s="14"/>
+      <c r="I166" s="9"/>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B167" s="13"/>
-      <c r="C167" s="2" t="s">
+      <c r="B167" s="49"/>
+      <c r="C167" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="D167" s="34" t="s">
+      <c r="D167" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="E167" s="14" t="s">
+      <c r="E167" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="F167" s="13"/>
+      <c r="F167" s="8"/>
       <c r="G167" s="1" t="s">
         <v>343</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I167" s="14"/>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B168" s="8" t="s">
+      <c r="I167" s="9"/>
+    </row>
+    <row r="168" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
+      <c r="B168" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="C168" s="24" t="s">
+      <c r="C168" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="D168" s="36" t="s">
+      <c r="D168" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="E168" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F168" s="8"/>
-      <c r="G168" s="9" t="s">
+      <c r="E168" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F168" s="5"/>
+      <c r="G168" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="H168" s="9" t="s">
+      <c r="H168" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="I168" s="10"/>
+      <c r="I168" s="7"/>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B169" s="13"/>
-      <c r="C169" s="2" t="s">
+      <c r="B169" s="49"/>
+      <c r="C169" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="D169" s="34" t="s">
+      <c r="D169" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="E169" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F169" s="13"/>
+      <c r="E169" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F169" s="8"/>
       <c r="G169" s="1" t="s">
         <v>356</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="I169" s="14"/>
+      <c r="I169" s="9"/>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B170" s="13"/>
-      <c r="C170" s="2" t="s">
+      <c r="B170" s="49"/>
+      <c r="C170" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="D170" s="34" t="s">
+      <c r="D170" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="E170" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F170" s="13"/>
+      <c r="E170" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F170" s="8"/>
       <c r="G170" s="1" t="s">
         <v>356</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="I170" s="14"/>
+      <c r="I170" s="9"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B171" s="13"/>
-      <c r="C171" s="2" t="s">
+      <c r="B171" s="49"/>
+      <c r="C171" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="D171" s="34" t="s">
+      <c r="D171" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="E171" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F171" s="13"/>
+      <c r="E171" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F171" s="8"/>
       <c r="G171" s="1" t="s">
         <v>364</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="I171" s="14"/>
+      <c r="I171" s="9"/>
     </row>
     <row r="172" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B172" s="13"/>
-      <c r="C172" s="2" t="s">
+      <c r="B172" s="49"/>
+      <c r="C172" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="D172" s="34" t="s">
+      <c r="D172" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="E172" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F172" s="13"/>
+      <c r="E172" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F172" s="8"/>
       <c r="G172" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="I172" s="14"/>
+      <c r="I172" s="9"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B173" s="13"/>
-      <c r="C173" s="2" t="s">
+      <c r="B173" s="49"/>
+      <c r="C173" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="D173" s="33" t="s">
+      <c r="D173" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="E173" s="14" t="s">
+      <c r="E173" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="F173" s="13"/>
+      <c r="F173" s="8"/>
       <c r="G173" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I173" s="14"/>
+      <c r="I173" s="9"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B174" s="13"/>
-      <c r="E174" s="14" t="s">
+      <c r="B174" s="49"/>
+      <c r="E174" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="F174" s="13"/>
-      <c r="I174" s="14"/>
+      <c r="F174" s="8"/>
+      <c r="I174" s="9"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B175" s="13"/>
-      <c r="C175" s="2" t="s">
+      <c r="B175" s="49"/>
+      <c r="C175" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="D175" s="33" t="s">
+      <c r="D175" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="E175" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F175" s="13"/>
+      <c r="E175" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F175" s="8"/>
       <c r="G175" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="I175" s="14"/>
+      <c r="I175" s="9"/>
     </row>
     <row r="176" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B176" s="13"/>
-      <c r="C176" s="2" t="s">
+      <c r="B176" s="49"/>
+      <c r="C176" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="D176" s="33" t="s">
+      <c r="D176" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="E176" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F176" s="13"/>
+      <c r="E176" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F176" s="8"/>
       <c r="G176" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I176" s="14"/>
+      <c r="I176" s="9"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B177" s="13"/>
-      <c r="C177" s="2" t="s">
+      <c r="B177" s="49"/>
+      <c r="C177" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="D177" s="34" t="s">
+      <c r="D177" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="E177" s="14" t="s">
+      <c r="E177" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="F177" s="13"/>
+      <c r="F177" s="8"/>
       <c r="G177" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I177" s="14"/>
+      <c r="I177" s="9"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B178" s="13"/>
-      <c r="C178" s="2" t="s">
+      <c r="B178" s="49"/>
+      <c r="C178" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="D178" s="34" t="s">
+      <c r="D178" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="E178" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F178" s="13"/>
+      <c r="E178" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F178" s="8"/>
       <c r="G178" s="1" t="s">
         <v>381</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="I178" s="14"/>
+      <c r="I178" s="9"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B179" s="13"/>
-      <c r="C179" s="12" t="s">
+      <c r="B179" s="49"/>
+      <c r="C179" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E179" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F179" s="13"/>
+      <c r="E179" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F179" s="8"/>
       <c r="G179" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="I179" s="14"/>
+      <c r="I179" s="9"/>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B180" s="13"/>
-      <c r="C180" s="12" t="s">
+      <c r="B180" s="49"/>
+      <c r="C180" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E180" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F180" s="13"/>
+      <c r="E180" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F180" s="8"/>
       <c r="G180" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="I180" s="14"/>
+      <c r="I180" s="9"/>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B181" s="13"/>
-      <c r="C181" s="12" t="s">
+      <c r="B181" s="49"/>
+      <c r="C181" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D181" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E181" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F181" s="13"/>
+      <c r="E181" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F181" s="8"/>
       <c r="G181" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="I181" s="14"/>
+      <c r="I181" s="9"/>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B182" s="13"/>
-      <c r="C182" s="12" t="s">
+      <c r="B182" s="49"/>
+      <c r="C182" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D182" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E182" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F182" s="13"/>
+      <c r="E182" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F182" s="8"/>
       <c r="G182" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="I182" s="14"/>
+      <c r="I182" s="9"/>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B183" s="13"/>
-      <c r="C183" s="12" t="s">
+      <c r="B183" s="49"/>
+      <c r="C183" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D183" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E183" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F183" s="13"/>
+      <c r="E183" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F183" s="8"/>
       <c r="G183" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="I183" s="14"/>
+      <c r="I183" s="9"/>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B184" s="13"/>
-      <c r="C184" s="12"/>
-      <c r="E184" s="14" t="s">
+      <c r="B184" s="49"/>
+      <c r="C184" s="31"/>
+      <c r="E184" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="F184" s="13"/>
-      <c r="I184" s="14"/>
+      <c r="F184" s="8"/>
+      <c r="I184" s="9"/>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B185" s="13"/>
-      <c r="C185" s="12" t="s">
+      <c r="B185" s="49"/>
+      <c r="C185" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D185" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E185" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F185" s="13"/>
+      <c r="E185" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F185" s="8"/>
       <c r="G185" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="I185" s="14"/>
+      <c r="I185" s="9"/>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B186" s="13"/>
-      <c r="C186" s="2" t="s">
+      <c r="B186" s="49"/>
+      <c r="C186" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D186" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E186" s="14" t="s">
+      <c r="E186" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="F186" s="13"/>
+      <c r="F186" s="8"/>
       <c r="G186" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I186" s="14"/>
+      <c r="I186" s="9"/>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B187" s="19"/>
-      <c r="C187" s="30" t="s">
+      <c r="B187" s="51"/>
+      <c r="C187" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="D187" s="31" t="s">
+      <c r="D187" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="E187" s="21" t="s">
+      <c r="E187" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="F187" s="19"/>
-      <c r="G187" s="20" t="s">
+      <c r="F187" s="12"/>
+      <c r="G187" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="H187" s="20"/>
-      <c r="I187" s="21"/>
+      <c r="H187" s="13"/>
+      <c r="I187" s="14"/>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B188" s="11" t="s">
+      <c r="B188" s="46" t="s">
         <v>405</v>
       </c>
-      <c r="F188" s="13"/>
-      <c r="I188" s="14"/>
+      <c r="F188" s="8"/>
+      <c r="I188" s="9"/>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B189" s="11" t="s">
+      <c r="B189" s="46" t="s">
         <v>406</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="D189" s="33" t="s">
+      <c r="D189" s="19" t="s">
         <v>408</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F189" s="13"/>
+      <c r="F189" s="8"/>
       <c r="G189" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I189" s="14"/>
+      <c r="I189" s="9"/>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B190" s="11"/>
-      <c r="C190" s="2" t="s">
+      <c r="B190" s="46"/>
+      <c r="C190" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="D190" s="33" t="s">
+      <c r="D190" s="19" t="s">
         <v>411</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F190" s="13"/>
+      <c r="F190" s="8"/>
       <c r="G190" s="1" t="s">
         <v>412</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="I190" s="14"/>
+      <c r="I190" s="9"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B191" s="11"/>
-      <c r="C191" s="2" t="s">
+      <c r="B191" s="46"/>
+      <c r="C191" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="D191" s="34" t="s">
+      <c r="D191" s="20" t="s">
         <v>415</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F191" s="13"/>
+      <c r="F191" s="8"/>
       <c r="G191" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="I191" s="14"/>
+      <c r="I191" s="9"/>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B192" s="11"/>
-      <c r="C192" s="2" t="s">
+      <c r="B192" s="46"/>
+      <c r="C192" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="D192" s="33" t="s">
+      <c r="D192" s="19" t="s">
         <v>417</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F192" s="13"/>
+      <c r="F192" s="8"/>
       <c r="G192" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I192" s="14"/>
+      <c r="I192" s="9"/>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B193" s="11"/>
-      <c r="C193" s="2" t="s">
+      <c r="B193" s="46"/>
+      <c r="C193" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="D193" s="33" t="s">
+      <c r="D193" s="19" t="s">
         <v>419</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F193" s="13"/>
+      <c r="F193" s="8"/>
       <c r="G193" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I193" s="14"/>
+      <c r="I193" s="9"/>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B194" s="11"/>
-      <c r="C194" s="2" t="s">
+      <c r="B194" s="46"/>
+      <c r="C194" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="D194" s="34" t="s">
+      <c r="D194" s="20" t="s">
         <v>422</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F194" s="13"/>
+      <c r="F194" s="8"/>
       <c r="G194" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="I194" s="14"/>
+      <c r="I194" s="9"/>
     </row>
     <row r="195" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B195" s="15"/>
-      <c r="C195" s="23" t="s">
+      <c r="B195" s="47"/>
+      <c r="C195" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="D195" s="33" t="s">
+      <c r="D195" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="E195" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F195" s="13"/>
+      <c r="E195" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F195" s="8"/>
       <c r="G195" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="I195" s="14"/>
+      <c r="I195" s="9"/>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="45" t="s">
         <v>426</v>
       </c>
-      <c r="C196" s="22" t="s">
+      <c r="C196" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="D196" s="34" t="s">
+      <c r="D196" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="E196" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F196" s="13"/>
+      <c r="E196" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F196" s="8"/>
       <c r="G196" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I196" s="14"/>
+      <c r="I196" s="9"/>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B197" s="11"/>
-      <c r="C197" s="2" t="s">
+      <c r="B197" s="46"/>
+      <c r="C197" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="D197" s="33" t="s">
+      <c r="D197" s="19" t="s">
         <v>431</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F197" s="13"/>
+      <c r="F197" s="8"/>
       <c r="G197" s="1" t="s">
         <v>429</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="I197" s="14"/>
+      <c r="I197" s="9"/>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B198" s="11"/>
-      <c r="C198" s="2" t="s">
+      <c r="B198" s="46"/>
+      <c r="C198" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="D198" s="33" t="s">
+      <c r="D198" s="19" t="s">
         <v>434</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F198" s="13"/>
+      <c r="F198" s="8"/>
       <c r="G198" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I198" s="14"/>
+      <c r="I198" s="9"/>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B199" s="11"/>
-      <c r="C199" s="2" t="s">
+      <c r="B199" s="46"/>
+      <c r="C199" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="D199" s="34" t="s">
+      <c r="D199" s="20" t="s">
         <v>436</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F199" s="13"/>
+      <c r="F199" s="8"/>
       <c r="G199" s="1" t="s">
         <v>437</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I199" s="14"/>
+      <c r="I199" s="9"/>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B200" s="11"/>
-      <c r="C200" s="2" t="s">
+      <c r="B200" s="46"/>
+      <c r="C200" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="D200" s="34" t="s">
+      <c r="D200" s="20" t="s">
         <v>440</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F200" s="13"/>
+      <c r="F200" s="8"/>
       <c r="G200" s="1" t="s">
         <v>221</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I200" s="14"/>
+      <c r="I200" s="9"/>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B201" s="11"/>
-      <c r="C201" s="2" t="s">
+      <c r="B201" s="46"/>
+      <c r="C201" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="D201" s="34" t="s">
+      <c r="D201" s="20" t="s">
         <v>442</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F201" s="13"/>
+      <c r="F201" s="8"/>
       <c r="G201" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="I201" s="14"/>
+      <c r="I201" s="9"/>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B202" s="11"/>
-      <c r="C202" s="2" t="s">
+      <c r="B202" s="46"/>
+      <c r="C202" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D202" s="2" t="s">
         <v>445</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F202" s="13"/>
-      <c r="I202" s="14"/>
+      <c r="F202" s="8"/>
+      <c r="I202" s="9"/>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B203" s="11"/>
-      <c r="C203" s="12" t="s">
+      <c r="B203" s="46"/>
+      <c r="C203" s="31" t="s">
         <v>446</v>
       </c>
-      <c r="D203" s="34" t="s">
+      <c r="D203" s="20" t="s">
         <v>447</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F203" s="13" t="s">
+      <c r="F203" s="8" t="s">
         <v>448</v>
       </c>
       <c r="G203" s="1" t="s">
@@ -5628,1212 +5647,1213 @@
       <c r="H203" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I203" s="14"/>
+      <c r="I203" s="9"/>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B204" s="11"/>
-      <c r="C204" s="2" t="s">
+      <c r="B204" s="46"/>
+      <c r="C204" s="29" t="s">
         <v>450</v>
       </c>
-      <c r="D204" s="33" t="s">
+      <c r="D204" s="19" t="s">
         <v>451</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F204" s="13"/>
+      <c r="F204" s="8"/>
       <c r="G204" s="1" t="s">
         <v>438</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I204" s="14"/>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B205" s="8" t="s">
+      <c r="I204" s="9"/>
+    </row>
+    <row r="205" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
+      <c r="B205" s="48" t="s">
         <v>452</v>
       </c>
-      <c r="C205" s="24" t="s">
+      <c r="C205" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="D205" s="37" t="s">
+      <c r="D205" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="E205" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F205" s="13" t="s">
+      <c r="E205" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F205" s="8" t="s">
         <v>455</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="I205" s="14"/>
+      <c r="I205" s="9"/>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B206" s="13" t="s">
+      <c r="B206" s="49" t="s">
         <v>457</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="D206" s="34" t="s">
+      <c r="D206" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="E206" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F206" s="8"/>
-      <c r="G206" s="9"/>
-      <c r="H206" s="9"/>
-      <c r="I206" s="10"/>
+      <c r="E206" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F206" s="5"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+      <c r="I206" s="7"/>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B207" s="13"/>
-      <c r="C207" s="2" t="s">
+      <c r="B207" s="49"/>
+      <c r="C207" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="D207" s="34" t="s">
+      <c r="D207" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="E207" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F207" s="13"/>
-      <c r="I207" s="14"/>
+      <c r="E207" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F207" s="8"/>
+      <c r="I207" s="9"/>
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B208" s="13"/>
-      <c r="C208" s="2" t="s">
+      <c r="B208" s="49"/>
+      <c r="C208" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="D208" s="34" t="s">
+      <c r="D208" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="E208" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F208" s="13"/>
-      <c r="I208" s="14"/>
+      <c r="E208" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F208" s="8"/>
+      <c r="I208" s="9"/>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B209" s="13"/>
-      <c r="C209" s="2" t="s">
+      <c r="B209" s="49"/>
+      <c r="C209" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="D209" s="34" t="s">
+      <c r="D209" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="E209" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F209" s="13"/>
-      <c r="I209" s="14"/>
+      <c r="E209" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F209" s="8"/>
+      <c r="I209" s="9"/>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B210" s="13"/>
-      <c r="C210" s="2" t="s">
+      <c r="B210" s="49"/>
+      <c r="C210" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="D210" s="34" t="s">
+      <c r="D210" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="E210" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F210" s="13"/>
-      <c r="I210" s="14"/>
+      <c r="E210" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F210" s="8"/>
+      <c r="I210" s="9"/>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B211" s="13"/>
-      <c r="C211" s="2" t="s">
+      <c r="B211" s="49"/>
+      <c r="C211" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="D211" s="34" t="s">
+      <c r="D211" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="E211" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F211" s="13"/>
-      <c r="I211" s="14"/>
+      <c r="E211" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F211" s="8"/>
+      <c r="I211" s="9"/>
     </row>
     <row r="212" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B212" s="13"/>
-      <c r="C212" s="2" t="s">
+      <c r="B212" s="49"/>
+      <c r="C212" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="D212" s="34" t="s">
+      <c r="D212" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="E212" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F212" s="13"/>
-      <c r="I212" s="14"/>
+      <c r="E212" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F212" s="8"/>
+      <c r="I212" s="9"/>
     </row>
     <row r="213" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B213" s="13"/>
-      <c r="C213" s="2" t="s">
+      <c r="B213" s="49"/>
+      <c r="C213" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="D213" s="34" t="s">
+      <c r="D213" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="E213" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F213" s="13"/>
-      <c r="I213" s="14"/>
+      <c r="E213" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F213" s="8"/>
+      <c r="I213" s="9"/>
     </row>
     <row r="214" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B214" s="13"/>
-      <c r="C214" s="2" t="s">
+      <c r="B214" s="49"/>
+      <c r="C214" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="D214" s="34" t="s">
+      <c r="D214" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="E214" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F214" s="13"/>
-      <c r="I214" s="14"/>
+      <c r="E214" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F214" s="8"/>
+      <c r="I214" s="9"/>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B215" s="13"/>
-      <c r="C215" s="2" t="s">
+      <c r="B215" s="49"/>
+      <c r="C215" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="D215" s="34" t="s">
+      <c r="D215" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="E215" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F215" s="13"/>
-      <c r="I215" s="14"/>
+      <c r="E215" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F215" s="8"/>
+      <c r="I215" s="9"/>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B216" s="13"/>
-      <c r="C216" s="2" t="s">
+      <c r="B216" s="49"/>
+      <c r="C216" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="D216" s="34" t="s">
+      <c r="D216" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="E216" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F216" s="13"/>
-      <c r="I216" s="14"/>
+      <c r="E216" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F216" s="8"/>
+      <c r="I216" s="9"/>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B217" s="13"/>
-      <c r="C217" s="2" t="s">
+      <c r="B217" s="49"/>
+      <c r="C217" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="D217" s="34" t="s">
+      <c r="D217" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="E217" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F217" s="13"/>
-      <c r="I217" s="14"/>
+      <c r="E217" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F217" s="8"/>
+      <c r="I217" s="9"/>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B218" s="13"/>
-      <c r="C218" s="2" t="s">
+      <c r="B218" s="49"/>
+      <c r="C218" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="D218" s="34" t="s">
+      <c r="D218" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="E218" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F218" s="13"/>
-      <c r="I218" s="14"/>
+      <c r="E218" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F218" s="8"/>
+      <c r="I218" s="9"/>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B219" s="19"/>
-      <c r="C219" s="30" t="s">
+      <c r="B219" s="51"/>
+      <c r="C219" s="38" t="s">
         <v>484</v>
       </c>
-      <c r="D219" s="31"/>
-      <c r="E219" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F219" s="19"/>
-      <c r="G219" s="20"/>
-      <c r="H219" s="20"/>
-      <c r="I219" s="21"/>
+      <c r="D219" s="17"/>
+      <c r="E219" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F219" s="12"/>
+      <c r="G219" s="13"/>
+      <c r="H219" s="13"/>
+      <c r="I219" s="14"/>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B220" s="38"/>
+      <c r="B220" s="52"/>
       <c r="C220" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="D220" s="40"/>
-      <c r="E220" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F220" s="13"/>
-      <c r="I220" s="14"/>
+      <c r="D220" s="24"/>
+      <c r="E220" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F220" s="8"/>
+      <c r="I220" s="9"/>
     </row>
     <row r="221" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B221" s="19"/>
-      <c r="C221" s="42" t="s">
+      <c r="B221" s="51"/>
+      <c r="C221" s="40" t="s">
         <v>485</v>
       </c>
-      <c r="D221" s="31" t="s">
+      <c r="D221" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="E221" s="21" t="s">
+      <c r="E221" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="F221" s="13"/>
-      <c r="I221" s="14"/>
+      <c r="F221" s="8"/>
+      <c r="I221" s="9"/>
     </row>
     <row r="222" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="11" t="s">
+      <c r="B222" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="D222" s="43" t="s">
+      <c r="D222" s="26" t="s">
         <v>489</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F222" s="13"/>
+      <c r="F222" s="8"/>
       <c r="G222" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="I222" s="14"/>
+      <c r="I222" s="9"/>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B223" s="11"/>
-      <c r="C223" s="2" t="s">
+      <c r="B223" s="46"/>
+      <c r="C223" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="D223" s="33" t="s">
+      <c r="D223" s="19" t="s">
         <v>492</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F223" s="13"/>
+      <c r="F223" s="8"/>
       <c r="G223" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="I223" s="14"/>
+      <c r="I223" s="9"/>
     </row>
     <row r="224" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B224" s="11"/>
-      <c r="C224" s="2" t="s">
+      <c r="B224" s="46"/>
+      <c r="C224" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="D224" s="33" t="s">
+      <c r="D224" s="19" t="s">
         <v>495</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F224" s="13"/>
-      <c r="I224" s="14"/>
+      <c r="F224" s="8"/>
+      <c r="I224" s="9"/>
     </row>
     <row r="225" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B225" s="11"/>
-      <c r="C225" s="2" t="s">
+      <c r="B225" s="46"/>
+      <c r="C225" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="D225" s="35" t="s">
+      <c r="D225" s="21" t="s">
         <v>497</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F225" s="13"/>
-      <c r="I225" s="14"/>
+      <c r="F225" s="8"/>
+      <c r="I225" s="9"/>
     </row>
     <row r="226" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B226" s="11"/>
-      <c r="C226" s="2" t="s">
+      <c r="B226" s="46"/>
+      <c r="C226" s="29" t="s">
         <v>498</v>
       </c>
-      <c r="D226" s="35" t="s">
+      <c r="D226" s="21" t="s">
         <v>497</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F226" s="13"/>
-      <c r="I226" s="14"/>
+      <c r="F226" s="8"/>
+      <c r="I226" s="9"/>
     </row>
     <row r="227" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="15"/>
-      <c r="C227" s="23" t="s">
+      <c r="B227" s="47"/>
+      <c r="C227" s="34" t="s">
         <v>499</v>
       </c>
-      <c r="D227" s="35" t="s">
+      <c r="D227" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="E227" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F227" s="13"/>
+      <c r="E227" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F227" s="8"/>
       <c r="G227" s="1" t="s">
         <v>501</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="I227" s="14"/>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B228" s="4" t="s">
+      <c r="I227" s="9"/>
+    </row>
+    <row r="228" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
+      <c r="B228" s="45" t="s">
         <v>503</v>
       </c>
-      <c r="C228" s="22" t="s">
+      <c r="C228" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="D228" s="6" t="s">
+      <c r="D228" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E228" s="7" t="s">
+      <c r="E228" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="F228" s="13" t="s">
+      <c r="F228" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="I228" s="14"/>
+      <c r="I228" s="9"/>
     </row>
     <row r="229" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="15"/>
-      <c r="C229" s="16" t="s">
+      <c r="B229" s="47"/>
+      <c r="C229" s="32" t="s">
         <v>507</v>
       </c>
-      <c r="D229" s="17" t="s">
+      <c r="D229" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="E229" s="18" t="s">
+      <c r="E229" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="F229" s="13"/>
-      <c r="I229" s="14"/>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B230" s="4" t="s">
+      <c r="F229" s="8"/>
+      <c r="I229" s="9"/>
+    </row>
+    <row r="230" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
+      <c r="B230" s="45" t="s">
         <v>509</v>
       </c>
-      <c r="C230" s="22" t="s">
+      <c r="C230" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="D230" s="6" t="s">
+      <c r="D230" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="E230" s="7" t="s">
+      <c r="E230" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="F230" s="13"/>
+      <c r="F230" s="8"/>
       <c r="G230" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I230" s="14" t="s">
+      <c r="I230" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B231" s="11"/>
-      <c r="C231" s="2" t="s">
+      <c r="B231" s="46"/>
+      <c r="C231" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="D231" s="2" t="s">
         <v>515</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="F231" s="13"/>
+      <c r="F231" s="8"/>
       <c r="G231" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I231" s="14" t="s">
+      <c r="I231" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B232" s="11"/>
+      <c r="B232" s="46"/>
       <c r="E232" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F232" s="13"/>
+      <c r="F232" s="8"/>
       <c r="G232" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I232" s="14" t="s">
+      <c r="I232" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B233" s="11"/>
-      <c r="C233" s="2" t="s">
+      <c r="B233" s="46"/>
+      <c r="C233" s="29" t="s">
         <v>517</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="D233" s="2" t="s">
         <v>518</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="F233" s="13"/>
+      <c r="F233" s="8"/>
       <c r="G233" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I233" s="14" t="s">
+      <c r="I233" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B234" s="11"/>
-      <c r="C234" s="2" t="s">
+      <c r="B234" s="46"/>
+      <c r="C234" s="29" t="s">
         <v>519</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="D234" s="2" t="s">
         <v>520</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="F234" s="13"/>
+      <c r="F234" s="8"/>
       <c r="G234" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I234" s="14" t="s">
+      <c r="I234" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B235" s="11"/>
+      <c r="B235" s="46"/>
       <c r="E235" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F235" s="13"/>
+      <c r="F235" s="8"/>
       <c r="G235" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I235" s="14" t="s">
+      <c r="I235" s="9" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B236" s="11" t="s">
+    <row r="236" spans="2:9" ht="34.75" x14ac:dyDescent="0.3">
+      <c r="B236" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="D236" s="2" t="s">
         <v>523</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F236" s="13"/>
+      <c r="F236" s="8"/>
       <c r="G236" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I236" s="14" t="s">
+      <c r="I236" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B237" s="11"/>
-      <c r="C237" s="2" t="s">
+      <c r="B237" s="46"/>
+      <c r="C237" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="D237" s="3" t="s">
+      <c r="D237" s="2" t="s">
         <v>525</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F237" s="13"/>
+      <c r="F237" s="8"/>
       <c r="G237" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I237" s="14" t="s">
+      <c r="I237" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B238" s="11"/>
+      <c r="B238" s="46"/>
       <c r="E238" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F238" s="13"/>
+      <c r="F238" s="8"/>
       <c r="G238" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I238" s="14" t="s">
+      <c r="I238" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B239" s="11"/>
-      <c r="C239" s="2" t="s">
+      <c r="B239" s="46"/>
+      <c r="C239" s="29" t="s">
         <v>526</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F239" s="13"/>
+      <c r="F239" s="8"/>
       <c r="G239" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I239" s="14" t="s">
+      <c r="I239" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B240" s="11"/>
-      <c r="C240" s="2" t="s">
+      <c r="B240" s="46"/>
+      <c r="C240" s="29" t="s">
         <v>527</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F240" s="13"/>
+      <c r="F240" s="8"/>
       <c r="G240" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I240" s="14" t="s">
+      <c r="I240" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="241" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B241" s="11"/>
+      <c r="B241" s="46"/>
       <c r="E241" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F241" s="13"/>
+      <c r="F241" s="8"/>
       <c r="G241" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I241" s="14" t="s">
+      <c r="I241" s="9" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B242" s="11" t="s">
+    <row r="242" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
+      <c r="B242" s="46" t="s">
         <v>528</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="29" t="s">
         <v>529</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="F242" s="13"/>
+      <c r="F242" s="8"/>
       <c r="G242" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I242" s="14" t="s">
+      <c r="I242" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="243" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B243" s="11"/>
-      <c r="C243" s="2" t="s">
+      <c r="B243" s="46"/>
+      <c r="C243" s="29" t="s">
         <v>530</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="F243" s="13"/>
+      <c r="F243" s="8"/>
       <c r="G243" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I243" s="14" t="s">
+      <c r="I243" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="244" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B244" s="11"/>
+      <c r="B244" s="46"/>
       <c r="E244" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F244" s="13"/>
+      <c r="F244" s="8"/>
       <c r="G244" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I244" s="14" t="s">
+      <c r="I244" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="245" spans="2:9" ht="34.75" x14ac:dyDescent="0.3">
-      <c r="B245" s="11"/>
-      <c r="C245" s="12" t="s">
+      <c r="B245" s="46"/>
+      <c r="C245" s="31" t="s">
         <v>531</v>
       </c>
-      <c r="D245" s="3" t="s">
+      <c r="D245" s="2" t="s">
         <v>532</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="F245" s="13"/>
+      <c r="F245" s="8"/>
       <c r="G245" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I245" s="14" t="s">
+      <c r="I245" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="246" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B246" s="11"/>
-      <c r="C246" s="2" t="s">
+      <c r="B246" s="46"/>
+      <c r="C246" s="29" t="s">
         <v>533</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="F246" s="13"/>
+      <c r="F246" s="8"/>
       <c r="G246" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I246" s="14" t="s">
+      <c r="I246" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="247" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B247" s="11"/>
-      <c r="C247" s="2" t="s">
+      <c r="B247" s="46"/>
+      <c r="C247" s="29" t="s">
         <v>534</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="F247" s="13"/>
+      <c r="F247" s="8"/>
       <c r="G247" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I247" s="14" t="s">
+      <c r="I247" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="248" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B248" s="15"/>
-      <c r="C248" s="23"/>
-      <c r="D248" s="17"/>
-      <c r="E248" s="18" t="s">
+      <c r="B248" s="47"/>
+      <c r="C248" s="34"/>
+      <c r="D248" s="10"/>
+      <c r="E248" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="F248" s="13"/>
+      <c r="F248" s="8"/>
       <c r="G248" s="1" t="s">
         <v>413</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I248" s="14" t="s">
+      <c r="I248" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="249" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B249" s="44" t="s">
+      <c r="B249" s="53" t="s">
         <v>535</v>
       </c>
-      <c r="C249" s="45"/>
-      <c r="D249" s="46"/>
-      <c r="E249" s="47"/>
-      <c r="F249" s="13"/>
-      <c r="I249" s="14"/>
-    </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B250" s="4" t="s">
+      <c r="C249" s="41"/>
+      <c r="D249" s="27"/>
+      <c r="E249" s="28"/>
+      <c r="F249" s="8"/>
+      <c r="I249" s="9"/>
+    </row>
+    <row r="250" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
+      <c r="B250" s="45" t="s">
         <v>536</v>
       </c>
-      <c r="C250" s="48" t="s">
+      <c r="C250" s="42" t="s">
         <v>537</v>
       </c>
-      <c r="D250" s="6" t="s">
+      <c r="D250" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="E250" s="7" t="s">
+      <c r="E250" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="F250" s="8"/>
-      <c r="G250" s="9" t="s">
+      <c r="F250" s="5"/>
+      <c r="G250" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="H250" s="9"/>
-      <c r="I250" s="10"/>
+      <c r="H250" s="6"/>
+      <c r="I250" s="7"/>
     </row>
     <row r="251" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B251" s="11"/>
-      <c r="C251" s="49" t="s">
+      <c r="B251" s="46"/>
+      <c r="C251" s="43" t="s">
         <v>540</v>
       </c>
-      <c r="D251" s="3" t="s">
+      <c r="D251" s="2" t="s">
         <v>541</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="F251" s="13"/>
+      <c r="F251" s="8"/>
       <c r="G251" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="I251" s="14"/>
+      <c r="I251" s="9"/>
     </row>
     <row r="252" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B252" s="11"/>
-      <c r="C252" s="49"/>
+      <c r="B252" s="46"/>
+      <c r="C252" s="43"/>
       <c r="E252" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="F252" s="13"/>
-      <c r="I252" s="14"/>
+      <c r="F252" s="8"/>
+      <c r="I252" s="9"/>
     </row>
     <row r="253" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B253" s="11"/>
-      <c r="C253" s="49" t="s">
+      <c r="B253" s="46"/>
+      <c r="C253" s="43" t="s">
         <v>542</v>
       </c>
-      <c r="D253" s="3" t="s">
+      <c r="D253" s="2" t="s">
         <v>543</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="F253" s="13"/>
+      <c r="F253" s="8"/>
       <c r="G253" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="I253" s="14"/>
+      <c r="I253" s="9"/>
     </row>
     <row r="254" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B254" s="11"/>
-      <c r="C254" s="49" t="s">
+      <c r="B254" s="46"/>
+      <c r="C254" s="43" t="s">
         <v>545</v>
       </c>
-      <c r="D254" s="3" t="s">
+      <c r="D254" s="2" t="s">
         <v>546</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="F254" s="13"/>
+      <c r="F254" s="8"/>
       <c r="G254" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="I254" s="14"/>
+      <c r="I254" s="9"/>
     </row>
     <row r="255" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B255" s="11"/>
-      <c r="C255" s="49"/>
+      <c r="B255" s="46"/>
+      <c r="C255" s="43"/>
       <c r="E255" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F255" s="13"/>
-      <c r="I255" s="14"/>
+      <c r="F255" s="8"/>
+      <c r="I255" s="9"/>
     </row>
     <row r="256" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B256" s="11"/>
-      <c r="C256" s="49" t="s">
+      <c r="B256" s="46"/>
+      <c r="C256" s="43" t="s">
         <v>549</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="D256" s="2" t="s">
         <v>550</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="F256" s="13"/>
+      <c r="F256" s="8"/>
       <c r="G256" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I256" s="14"/>
+      <c r="I256" s="9"/>
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B257" s="11"/>
-      <c r="C257" s="49" t="s">
+      <c r="B257" s="46"/>
+      <c r="C257" s="43" t="s">
         <v>552</v>
       </c>
-      <c r="D257" s="3" t="s">
+      <c r="D257" s="2" t="s">
         <v>553</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="F257" s="13"/>
+      <c r="F257" s="8"/>
       <c r="G257" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I257" s="14"/>
+      <c r="I257" s="9"/>
     </row>
     <row r="258" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B258" s="11" t="s">
+      <c r="B258" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="C258" s="49" t="s">
+      <c r="C258" s="43" t="s">
         <v>554</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="D258" s="2" t="s">
         <v>555</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="F258" s="13"/>
+      <c r="F258" s="8"/>
       <c r="G258" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I258" s="14"/>
+      <c r="I258" s="9"/>
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B259" s="11"/>
-      <c r="C259" s="49" t="s">
+      <c r="B259" s="46"/>
+      <c r="C259" s="43" t="s">
         <v>557</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="D259" s="2" t="s">
         <v>558</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="F259" s="13"/>
+      <c r="F259" s="8"/>
       <c r="G259" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I259" s="14"/>
+      <c r="I259" s="9"/>
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B260" s="11"/>
-      <c r="C260" s="49"/>
+      <c r="B260" s="46"/>
+      <c r="C260" s="43"/>
       <c r="E260" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="F260" s="13"/>
-      <c r="I260" s="14"/>
+      <c r="F260" s="8"/>
+      <c r="I260" s="9"/>
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B261" s="11"/>
-      <c r="C261" s="49" t="s">
+      <c r="B261" s="46"/>
+      <c r="C261" s="43" t="s">
         <v>560</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="D261" s="2" t="s">
         <v>561</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="F261" s="13"/>
+      <c r="F261" s="8"/>
       <c r="G261" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I261" s="14"/>
+      <c r="I261" s="9"/>
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B262" s="11"/>
-      <c r="C262" s="49" t="s">
+      <c r="B262" s="46"/>
+      <c r="C262" s="43" t="s">
         <v>562</v>
       </c>
-      <c r="D262" s="3" t="s">
+      <c r="D262" s="2" t="s">
         <v>558</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="F262" s="13"/>
+      <c r="F262" s="8"/>
       <c r="G262" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I262" s="14"/>
+      <c r="I262" s="9"/>
     </row>
     <row r="263" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B263" s="11"/>
-      <c r="C263" s="49"/>
+      <c r="B263" s="46"/>
+      <c r="C263" s="43"/>
       <c r="E263" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="F263" s="13"/>
-      <c r="I263" s="14"/>
-    </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B264" s="11" t="s">
+      <c r="F263" s="8"/>
+      <c r="I263" s="9"/>
+    </row>
+    <row r="264" spans="2:9" ht="34.75" x14ac:dyDescent="0.3">
+      <c r="B264" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="C264" s="49" t="s">
+      <c r="C264" s="43" t="s">
         <v>563</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="D264" s="2" t="s">
         <v>564</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="F264" s="13"/>
+      <c r="F264" s="8"/>
       <c r="G264" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I264" s="14"/>
+      <c r="I264" s="9"/>
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B265" s="11"/>
-      <c r="C265" s="49" t="s">
+      <c r="B265" s="46"/>
+      <c r="C265" s="43" t="s">
         <v>566</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="D265" s="2" t="s">
         <v>567</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="F265" s="13"/>
+      <c r="F265" s="8"/>
       <c r="G265" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I265" s="14"/>
+      <c r="I265" s="9"/>
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B266" s="11"/>
-      <c r="C266" s="49"/>
+      <c r="B266" s="46"/>
+      <c r="C266" s="43"/>
       <c r="E266" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="F266" s="13"/>
-      <c r="I266" s="14"/>
+      <c r="F266" s="8"/>
+      <c r="I266" s="9"/>
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B267" s="11"/>
-      <c r="C267" s="49" t="s">
+      <c r="B267" s="46"/>
+      <c r="C267" s="43" t="s">
         <v>568</v>
       </c>
-      <c r="D267" s="3" t="s">
+      <c r="D267" s="2" t="s">
         <v>569</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="F267" s="13"/>
+      <c r="F267" s="8"/>
       <c r="G267" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I267" s="14"/>
+      <c r="I267" s="9"/>
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B268" s="11"/>
-      <c r="C268" s="49" t="s">
+      <c r="B268" s="46"/>
+      <c r="C268" s="43" t="s">
         <v>570</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="D268" s="2" t="s">
         <v>571</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="F268" s="13"/>
+      <c r="F268" s="8"/>
       <c r="G268" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I268" s="14"/>
+      <c r="I268" s="9"/>
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B269" s="11"/>
-      <c r="C269" s="49"/>
+      <c r="B269" s="46"/>
+      <c r="C269" s="43"/>
       <c r="E269" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="F269" s="13"/>
-      <c r="I269" s="14"/>
-    </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B270" s="11" t="s">
+      <c r="F269" s="8"/>
+      <c r="I269" s="9"/>
+    </row>
+    <row r="270" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
+      <c r="B270" s="46" t="s">
         <v>528</v>
       </c>
-      <c r="C270" s="49" t="s">
+      <c r="C270" s="43" t="s">
         <v>572</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="D270" s="2" t="s">
         <v>573</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F270" s="13"/>
+      <c r="F270" s="8"/>
       <c r="G270" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I270" s="14"/>
+      <c r="I270" s="9"/>
     </row>
     <row r="271" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B271" s="11"/>
-      <c r="C271" s="49" t="s">
+      <c r="B271" s="46"/>
+      <c r="C271" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="D271" s="2" t="s">
         <v>576</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F271" s="13"/>
+      <c r="F271" s="8"/>
       <c r="G271" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I271" s="14"/>
+      <c r="I271" s="9"/>
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B272" s="11"/>
-      <c r="C272" s="49"/>
+      <c r="B272" s="46"/>
+      <c r="C272" s="43"/>
       <c r="E272" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="F272" s="13"/>
-      <c r="I272" s="14"/>
+      <c r="F272" s="8"/>
+      <c r="I272" s="9"/>
     </row>
     <row r="273" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B273" s="11"/>
-      <c r="C273" s="49" t="s">
+      <c r="B273" s="46"/>
+      <c r="C273" s="43" t="s">
         <v>577</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="D273" s="2" t="s">
         <v>578</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F273" s="13"/>
+      <c r="F273" s="8"/>
       <c r="G273" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I273" s="14"/>
+      <c r="I273" s="9"/>
     </row>
     <row r="274" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B274" s="11"/>
-      <c r="C274" s="49" t="s">
+      <c r="B274" s="46"/>
+      <c r="C274" s="43" t="s">
         <v>579</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="D274" s="2" t="s">
         <v>580</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F274" s="13"/>
+      <c r="F274" s="8"/>
       <c r="G274" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I274" s="14"/>
+      <c r="I274" s="9"/>
     </row>
     <row r="275" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B275" s="11"/>
-      <c r="C275" s="49" t="s">
+      <c r="B275" s="46"/>
+      <c r="C275" s="43" t="s">
         <v>581</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="D275" s="2" t="s">
         <v>582</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F275" s="13"/>
+      <c r="F275" s="8"/>
       <c r="G275" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I275" s="14"/>
+      <c r="I275" s="9"/>
     </row>
     <row r="276" spans="2:9" ht="23.15" x14ac:dyDescent="0.3">
-      <c r="B276" s="11"/>
-      <c r="C276" s="49" t="s">
+      <c r="B276" s="46"/>
+      <c r="C276" s="43" t="s">
         <v>583</v>
       </c>
-      <c r="D276" s="3" t="s">
+      <c r="D276" s="2" t="s">
         <v>584</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F276" s="13"/>
+      <c r="F276" s="8"/>
       <c r="G276" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I276" s="14"/>
+      <c r="I276" s="9"/>
     </row>
     <row r="277" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B277" s="15"/>
-      <c r="C277" s="50"/>
-      <c r="D277" s="17"/>
-      <c r="E277" s="18" t="s">
+      <c r="B277" s="47"/>
+      <c r="C277" s="44"/>
+      <c r="D277" s="10"/>
+      <c r="E277" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="F277" s="19"/>
-      <c r="G277" s="20"/>
-      <c r="H277" s="20"/>
-      <c r="I277" s="21"/>
+      <c r="F277" s="12"/>
+      <c r="G277" s="13"/>
+      <c r="H277" s="13"/>
+      <c r="I277" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>